--- a/2019_party_with_highest_votes.xlsx
+++ b/2019_party_with_highest_votes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>voting_percentage</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>total_votes</t>
         </is>
       </c>
@@ -471,7 +476,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.28794425</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>153883</v>
       </c>
     </row>
@@ -491,7 +501,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.68653981</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>225796</v>
       </c>
     </row>
@@ -511,7 +526,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.33068419</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>377374</v>
       </c>
     </row>
@@ -531,7 +551,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.38382301</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>646875</v>
       </c>
     </row>
@@ -551,7 +576,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.85653348</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>704660</v>
       </c>
     </row>
@@ -571,7 +601,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.3849704</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>749834</v>
       </c>
     </row>
@@ -591,7 +626,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.04432316</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>641622</v>
       </c>
     </row>
@@ -611,7 +651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.4395362</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>815076</v>
       </c>
     </row>
@@ -631,7 +676,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.91292046</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>581282</v>
       </c>
     </row>
@@ -651,7 +701,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.72620712</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>554444</v>
       </c>
     </row>
@@ -671,7 +726,12 @@
           <t>CPIM</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.87164969</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>445970</v>
       </c>
     </row>
@@ -691,7 +751,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42.13905339</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>533815</v>
       </c>
     </row>
@@ -711,7 +776,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.77322936</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>656215</v>
       </c>
     </row>
@@ -731,7 +801,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>45.54790968</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>750804</v>
       </c>
     </row>
@@ -751,7 +826,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.81164926</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>494454</v>
       </c>
     </row>
@@ -771,7 +851,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.23728069</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>444651</v>
       </c>
     </row>
@@ -791,7 +876,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.25371136</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>760201</v>
       </c>
     </row>
@@ -811,7 +901,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.29491982</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>485958</v>
       </c>
     </row>
@@ -831,7 +926,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.27100233</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>746508</v>
       </c>
     </row>
@@ -851,7 +951,12 @@
           <t>BSP</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.59162146</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>564118</v>
       </c>
     </row>
@@ -871,7 +976,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.87180781</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>468514</v>
       </c>
     </row>
@@ -891,8 +1001,13 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>547490</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.87352074</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>510947</v>
       </c>
     </row>
     <row r="24">
@@ -911,7 +1026,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32.48700759</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>529035</v>
       </c>
     </row>
@@ -931,7 +1051,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.51385228</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>445032</v>
       </c>
     </row>
@@ -951,7 +1076,12 @@
           <t>BSP</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>36.50809173</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>601082</v>
       </c>
     </row>
@@ -971,7 +1101,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38.5329471</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>586226</v>
       </c>
     </row>
@@ -991,7 +1126,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>38.23349659</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>633097</v>
       </c>
     </row>
@@ -1011,7 +1151,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.1957765</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>428045</v>
       </c>
     </row>
@@ -1031,7 +1176,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>41.77531007</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>695208</v>
       </c>
     </row>
@@ -1051,7 +1201,12 @@
           <t>JKN</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.874560285</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>40180</v>
       </c>
     </row>
@@ -1071,7 +1226,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>29.92674372</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>95308</v>
       </c>
     </row>
@@ -1091,7 +1251,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>30.11164283</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>537675</v>
       </c>
     </row>
@@ -1111,7 +1276,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>44.81218867</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>672190</v>
       </c>
     </row>
@@ -1131,7 +1301,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>36.82889015</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>649929</v>
       </c>
     </row>
@@ -1151,7 +1326,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>42.62912742</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>617760</v>
       </c>
     </row>
@@ -1171,7 +1351,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>34.25394045</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>618434</v>
       </c>
     </row>
@@ -1191,7 +1376,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>27.11269948</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
         <v>566480</v>
       </c>
     </row>
@@ -1211,7 +1401,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>38.73384511</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
         <v>562190</v>
       </c>
     </row>
@@ -1231,7 +1426,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>39.19745771</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>633378</v>
       </c>
     </row>
@@ -1251,7 +1451,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>35.86612551</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>552749</v>
       </c>
     </row>
@@ -1271,7 +1476,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>28.20701705</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>380995</v>
       </c>
     </row>
@@ -1291,7 +1501,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>24.54100476</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>427721</v>
       </c>
     </row>
@@ -1311,7 +1526,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>47.90733028</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>381316</v>
       </c>
     </row>
@@ -1331,7 +1551,12 @@
           <t>SP</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>34.74117579</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>621578</v>
       </c>
     </row>
@@ -1351,7 +1576,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>39.3784101</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
         <v>696102</v>
       </c>
     </row>
@@ -1371,7 +1601,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>29.18719301</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>402527</v>
       </c>
     </row>
@@ -1391,7 +1626,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>46.69222539</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
         <v>811248</v>
       </c>
     </row>
@@ -1411,7 +1651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>36.42320122</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
         <v>707992</v>
       </c>
     </row>
@@ -1431,7 +1676,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>29.89202043</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
         <v>527694</v>
       </c>
     </row>
@@ -1451,7 +1701,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>40.43575388</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
         <v>866482</v>
       </c>
     </row>
@@ -1471,7 +1726,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>33.80793232</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
         <v>634559</v>
       </c>
     </row>
@@ -1491,7 +1751,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>27.03311947</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
         <v>511352</v>
       </c>
     </row>
@@ -1511,7 +1776,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>39.00434857</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
         <v>664638</v>
       </c>
     </row>
@@ -1531,7 +1801,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>32.52686709</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
         <v>525789</v>
       </c>
     </row>
@@ -1551,7 +1826,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>36.07873153</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
         <v>591106</v>
       </c>
     </row>
@@ -1571,7 +1851,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>30.40520074</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
         <v>525982</v>
       </c>
     </row>
@@ -1591,7 +1876,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>31.58793587</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
         <v>483858</v>
       </c>
     </row>
@@ -1611,7 +1901,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>25.73837185</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
         <v>469114</v>
       </c>
     </row>
@@ -1631,7 +1926,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>37.66958813</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
         <v>539317</v>
       </c>
     </row>
@@ -1651,7 +1951,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>40.00909635</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
         <v>679108</v>
       </c>
     </row>
@@ -1671,7 +1976,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>28.07986256</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
         <v>477926</v>
       </c>
     </row>
@@ -1691,7 +2001,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>28.93743968</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
         <v>824500</v>
       </c>
     </row>
@@ -1711,7 +2026,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>35.16607687</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
         <v>878258</v>
       </c>
     </row>
@@ -1731,7 +2051,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>33.36640353</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
         <v>739229</v>
       </c>
     </row>
@@ -1751,7 +2076,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>27.34254135</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
         <v>602853</v>
       </c>
     </row>
@@ -1771,7 +2101,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>40.33844255</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
         <v>687622</v>
       </c>
     </row>
@@ -1791,7 +2126,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>28.11519871</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
         <v>477788</v>
       </c>
     </row>
@@ -1811,7 +2151,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>40.95557903</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
         <v>675319</v>
       </c>
     </row>
@@ -1831,7 +2176,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>31.21601729</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
         <v>546673</v>
       </c>
     </row>
@@ -1851,7 +2201,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>36.02918545</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
         <v>711709</v>
       </c>
     </row>
@@ -1871,7 +2226,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>40.73458249</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
         <v>598257</v>
       </c>
     </row>
@@ -1891,7 +2251,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>29.49736629</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
         <v>535917</v>
       </c>
     </row>
@@ -1911,7 +2276,12 @@
           <t>NCP</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>32.47392138</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
         <v>686714</v>
       </c>
     </row>
@@ -1931,7 +2301,12 @@
           <t>JKN</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10.12538153</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
         <v>133426</v>
       </c>
     </row>
@@ -1951,7 +2326,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>37.73858549</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
         <v>648444</v>
       </c>
     </row>
@@ -1971,7 +2351,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>34.51682013</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
         <v>598376</v>
       </c>
     </row>
@@ -1991,7 +2376,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>37.73854021</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
         <v>640834</v>
       </c>
     </row>
@@ -2011,7 +2401,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>40.63851267</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
         <v>742273</v>
       </c>
     </row>
@@ -2031,7 +2426,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>31.44485455</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
         <v>565270</v>
       </c>
     </row>
@@ -2051,7 +2451,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>36.41224339</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
         <v>581245</v>
       </c>
     </row>
@@ -2071,7 +2476,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>43.60769017</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
         <v>846526</v>
       </c>
     </row>
@@ -2091,7 +2501,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>38.2858133</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
         <v>645173</v>
       </c>
     </row>
@@ -2111,7 +2526,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>32.92841772</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>472994</v>
       </c>
     </row>
@@ -2131,7 +2551,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>46.59783348</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
         <v>782078</v>
       </c>
     </row>
@@ -2151,7 +2576,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>25.53414953</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
         <v>471162</v>
       </c>
     </row>
@@ -2171,7 +2601,12 @@
           <t>SAD</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>30.38988796</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
         <v>492824</v>
       </c>
     </row>
@@ -2191,7 +2626,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>33.15602533</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
         <v>678175</v>
       </c>
     </row>
@@ -2211,7 +2651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>35.34514717</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
         <v>692193</v>
       </c>
     </row>
@@ -2231,7 +2676,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>42.82412117</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
         <v>761991</v>
       </c>
     </row>
@@ -2251,7 +2701,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>35.18730584</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
         <v>616388</v>
       </c>
     </row>
@@ -2271,7 +2726,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>29.54118426</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
         <v>443843</v>
       </c>
     </row>
@@ -2291,7 +2751,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>26.25612994</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
         <v>510029</v>
       </c>
     </row>
@@ -2311,7 +2776,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>30.87543127</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
         <v>513045</v>
       </c>
     </row>
@@ -2331,7 +2801,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>33.89884967</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
         <v>618254</v>
       </c>
     </row>
@@ -2351,7 +2826,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>35.89417054</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
         <v>650243</v>
       </c>
     </row>
@@ -2371,7 +2851,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>40.76620354</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
         <v>637795</v>
       </c>
     </row>
@@ -2391,7 +2876,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>37.39603698</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
         <v>661273</v>
       </c>
     </row>
@@ -2411,7 +2901,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>46.97075293</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
         <v>938160</v>
       </c>
     </row>
@@ -2431,7 +2926,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>27.70133855</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
         <v>523583</v>
       </c>
     </row>
@@ -2451,7 +2951,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>44.53191257</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
         <v>736699</v>
       </c>
     </row>
@@ -2471,7 +2976,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>32.72630223</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
         <v>532795</v>
       </c>
     </row>
@@ -2491,7 +3001,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>28.65195643</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
         <v>486991</v>
       </c>
     </row>
@@ -2511,7 +3026,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>32.98251643</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
         <v>585471</v>
       </c>
     </row>
@@ -2531,7 +3051,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>35.3733644</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
         <v>635867</v>
       </c>
     </row>
@@ -2551,7 +3076,12 @@
           <t>BSP</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>33.71411402</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
         <v>561045</v>
       </c>
     </row>
@@ -2571,7 +3101,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>35.52241595</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
         <v>657743</v>
       </c>
     </row>
@@ -2591,7 +3126,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>38.49280169</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
         <v>654077</v>
       </c>
     </row>
@@ -2611,7 +3151,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>40.37729866</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
         <v>657019</v>
       </c>
     </row>
@@ -2631,7 +3176,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>28.55267518</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
         <v>498086</v>
       </c>
     </row>
@@ -2651,7 +3201,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>41.00534112</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
         <v>699171</v>
       </c>
     </row>
@@ -2671,7 +3226,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>38.10679978</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
         <v>681321</v>
       </c>
     </row>
@@ -2691,7 +3251,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>29.60869422</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
         <v>521977</v>
       </c>
     </row>
@@ -2711,7 +3276,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>25.85875051</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
         <v>473053</v>
       </c>
     </row>
@@ -2731,7 +3301,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>35.74727591</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
         <v>231188</v>
       </c>
     </row>
@@ -2751,7 +3326,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>33.22413417</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
         <v>519055</v>
       </c>
     </row>
@@ -2771,7 +3351,12 @@
           <t>TRS</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>21.61783823</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
         <v>528148</v>
       </c>
     </row>
@@ -2791,7 +3376,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>38.77156002</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
         <v>587305</v>
       </c>
     </row>
@@ -2811,7 +3401,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>38.48521822</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
         <v>473444</v>
       </c>
     </row>
@@ -2831,7 +3426,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>33.71439686</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
         <v>568537</v>
       </c>
     </row>
@@ -2851,7 +3451,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>29.07116596</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
         <v>510733</v>
       </c>
     </row>
@@ -2871,7 +3476,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>29.29067715</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
         <v>559507</v>
       </c>
     </row>
@@ -2891,7 +3501,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>37.05236673</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
         <v>528077</v>
       </c>
     </row>
@@ -2911,7 +3526,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>39.72531746</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
         <v>590986</v>
       </c>
     </row>
@@ -2931,7 +3551,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>28.62237419</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
         <v>564872</v>
       </c>
     </row>
@@ -2951,7 +3576,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>33.69443819</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
         <v>448911</v>
       </c>
     </row>
@@ -2971,7 +3601,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>45.74083038</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
         <v>764445</v>
       </c>
     </row>
@@ -2991,7 +3626,12 @@
           <t>VCK</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>33.79418763</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
         <v>500229</v>
       </c>
     </row>
@@ -3011,7 +3651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>41.23840379</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
         <v>745912</v>
       </c>
     </row>
@@ -3031,7 +3676,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>39.99966513</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
         <v>645017</v>
       </c>
     </row>
@@ -3051,7 +3701,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>35.56646956</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
         <v>626195</v>
       </c>
     </row>
@@ -3071,7 +3726,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>43.84247931</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
         <v>686792</v>
       </c>
     </row>
@@ -3091,7 +3751,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>48.75919621</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
         <v>982942</v>
       </c>
     </row>
@@ -3111,7 +3776,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>39.27479714</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
         <v>792999</v>
       </c>
     </row>
@@ -3131,7 +3801,12 @@
           <t>CPIM</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>29.15661002</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
         <v>571150</v>
       </c>
     </row>
@@ -3151,7 +3826,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>40.3259839</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
         <v>731594</v>
       </c>
     </row>
@@ -3171,7 +3851,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>38.28045846</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
         <v>522160</v>
       </c>
     </row>
@@ -3191,7 +3876,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>34.53544315</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
         <v>524592</v>
       </c>
     </row>
@@ -3211,7 +3901,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>39.83113756</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
         <v>704524</v>
       </c>
     </row>
@@ -3231,7 +3926,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>48.98764728</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
         <v>862429</v>
       </c>
     </row>
@@ -3251,7 +3951,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>40.43034435</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
         <v>722147</v>
       </c>
     </row>
@@ -3271,7 +3976,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>43.77609496</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
         <v>849374</v>
       </c>
     </row>
@@ -3291,8 +4001,13 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>97458</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>36.16420495</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>90421</v>
       </c>
     </row>
     <row r="144">
@@ -3311,7 +4026,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>35.13329777</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
         <v>561760</v>
       </c>
     </row>
@@ -3331,7 +4051,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>44.88671147</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
         <v>774285</v>
       </c>
     </row>
@@ -3351,7 +4076,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>30.88302941</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
         <v>37597</v>
       </c>
     </row>
@@ -3371,7 +4101,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>35.45226615</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
         <v>586668</v>
       </c>
     </row>
@@ -3391,7 +4126,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>46.549934</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
         <v>750067</v>
       </c>
     </row>
@@ -3411,7 +4151,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>31.71337274</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
         <v>548733</v>
       </c>
     </row>
@@ -3431,7 +4176,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>39.98594054</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
         <v>652996</v>
       </c>
     </row>
@@ -3451,7 +4201,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>33.10031097</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
         <v>580644</v>
       </c>
     </row>
@@ -3471,7 +4226,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>39.91220833</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
         <v>827234</v>
       </c>
     </row>
@@ -3491,7 +4251,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>38.69877857</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
         <v>574988</v>
       </c>
     </row>
@@ -3511,7 +4276,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>39.64757939</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
         <v>684837</v>
       </c>
     </row>
@@ -3531,7 +4301,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>31.18581555</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
         <v>512905</v>
       </c>
     </row>
@@ -3551,7 +4326,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>34.75691022</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
         <v>522884</v>
       </c>
     </row>
@@ -3571,7 +4351,12 @@
           <t>AIUDF</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>38.67304147</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
         <v>718764</v>
       </c>
     </row>
@@ -3591,7 +4376,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>32.15290228</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
         <v>613533</v>
       </c>
     </row>
@@ -3611,7 +4401,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>46.01742681</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
         <v>791127</v>
       </c>
     </row>
@@ -3631,7 +4426,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>50.18439207</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
         <v>659583</v>
       </c>
     </row>
@@ -3651,7 +4451,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>48.41638233</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
         <v>746523</v>
       </c>
     </row>
@@ -3671,7 +4476,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>32.74616027</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
         <v>567470</v>
       </c>
     </row>
@@ -3691,7 +4501,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>26.10822023</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
         <v>492253</v>
       </c>
     </row>
@@ -3711,7 +4526,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>32.69463081</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
         <v>512062</v>
       </c>
     </row>
@@ -3731,7 +4551,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>34.7054542</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
         <v>484923</v>
       </c>
     </row>
@@ -3751,7 +4576,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>34.13697432</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
         <v>696156</v>
       </c>
     </row>
@@ -3771,7 +4601,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>42.43449638</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
         <v>676809</v>
       </c>
     </row>
@@ -3791,7 +4626,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>39.42809309</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
         <v>491263</v>
       </c>
     </row>
@@ -3811,7 +4651,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>38.54283069</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
         <v>563591</v>
       </c>
     </row>
@@ -3831,7 +4676,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>33.6365683</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
         <v>545348</v>
       </c>
     </row>
@@ -3851,7 +4701,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>29.69987213</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
         <v>522119</v>
       </c>
     </row>
@@ -3871,7 +4726,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>29.03860774</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
         <v>529021</v>
       </c>
     </row>
@@ -3891,7 +4751,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>44.07833514</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
         <v>913222</v>
       </c>
     </row>
@@ -3911,7 +4776,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>27.17722966</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
         <v>419065</v>
       </c>
     </row>
@@ -3931,7 +4801,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>33.35391567</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
         <v>569880</v>
       </c>
     </row>
@@ -3951,7 +4826,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>27.39115594</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
         <v>411651</v>
       </c>
     </row>
@@ -3971,7 +4851,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>30.77455048</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
         <v>566040</v>
       </c>
     </row>
@@ -3991,7 +4876,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>38.81386077</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
         <v>667147</v>
       </c>
     </row>
@@ -4011,7 +4901,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>27.69149572</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
         <v>495819</v>
       </c>
     </row>
@@ -4031,7 +4926,12 @@
           <t>SAD</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>39.1386285</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
         <v>633427</v>
       </c>
     </row>
@@ -4051,7 +4951,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>36.64380292</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
         <v>614049</v>
       </c>
     </row>
@@ -4071,7 +4976,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>31.35083749</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
         <v>627250</v>
       </c>
     </row>
@@ -4091,7 +5001,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>32.88093964</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
         <v>519968</v>
       </c>
     </row>
@@ -4111,7 +5026,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>45.97784324</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
         <v>894624</v>
       </c>
     </row>
@@ -4131,7 +5051,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>46.16328597</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
         <v>897177</v>
       </c>
     </row>
@@ -4151,7 +5076,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>37.39353118</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
         <v>506980</v>
       </c>
     </row>
@@ -4171,7 +5101,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>46.25348241</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
         <v>1008936</v>
       </c>
     </row>
@@ -4191,7 +5126,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>36.07583284</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
         <v>830812</v>
       </c>
     </row>
@@ -4211,7 +5151,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>27.39693159</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
         <v>467007</v>
       </c>
     </row>
@@ -4231,7 +5176,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>39.88656679</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
         <v>717959</v>
       </c>
     </row>
@@ -4251,7 +5201,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D191" t="n">
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>34.6101361</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
         <v>944503</v>
       </c>
     </row>
@@ -4271,7 +5226,12 @@
           <t>BSP</t>
         </is>
       </c>
-      <c r="D192" t="n">
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>30.09350494</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
         <v>566082</v>
       </c>
     </row>
@@ -4291,7 +5251,12 @@
           <t>BSP</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>28.81172454</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
         <v>573829</v>
       </c>
     </row>
@@ -4311,7 +5276,12 @@
           <t>AJSUP</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>39.30349767</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
         <v>648277</v>
       </c>
     </row>
@@ -4331,7 +5301,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>37.14018101</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
         <v>637610</v>
       </c>
     </row>
@@ -4351,7 +5326,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>28.70727717</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
         <v>508190</v>
       </c>
     </row>
@@ -4371,7 +5351,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>30.88587529</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
         <v>568150</v>
       </c>
     </row>
@@ -4391,7 +5376,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>36.19640046</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
         <v>717122</v>
       </c>
     </row>
@@ -4411,7 +5401,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>31.87394161</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
         <v>620192</v>
       </c>
     </row>
@@ -4431,7 +5426,12 @@
           <t>TDP</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>34.45937827</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
         <v>587918</v>
       </c>
     </row>
@@ -4451,7 +5451,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>35.02316829</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
         <v>558719</v>
       </c>
     </row>
@@ -4471,7 +5476,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>40.98826072</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
         <v>881546</v>
       </c>
     </row>
@@ -4491,7 +5501,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>51.45688428</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
         <v>877927</v>
       </c>
     </row>
@@ -4511,7 +5526,12 @@
           <t>LJP</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>29.68255117</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
         <v>541310</v>
       </c>
     </row>
@@ -4531,7 +5551,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>50.11433131</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
         <v>682692</v>
       </c>
     </row>
@@ -4551,7 +5576,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>31.43915813</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
         <v>568143</v>
       </c>
     </row>
@@ -4571,7 +5601,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D207" t="n">
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>36.1634301</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
         <v>665674</v>
       </c>
     </row>
@@ -4591,7 +5626,12 @@
           <t>JD(S)</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>40.93202718</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
         <v>676606</v>
       </c>
     </row>
@@ -4611,7 +5651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>36.70501845</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
         <v>684299</v>
       </c>
     </row>
@@ -4631,7 +5676,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>32.97257895</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
         <v>585776</v>
       </c>
     </row>
@@ -4651,7 +5701,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>40.01498382</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
         <v>683660</v>
       </c>
     </row>
@@ -4671,7 +5726,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>43.70694437</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
         <v>728798</v>
       </c>
     </row>
@@ -4691,7 +5751,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>44.77214174</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
         <v>706602</v>
       </c>
     </row>
@@ -4711,7 +5776,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>33.81797271</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
         <v>586312</v>
       </c>
     </row>
@@ -4731,7 +5801,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>36.97038332</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
         <v>603289</v>
       </c>
     </row>
@@ -4751,7 +5826,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>38.00790331</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
         <v>671448</v>
       </c>
     </row>
@@ -4771,7 +5851,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>26.37370892</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
         <v>421320</v>
       </c>
     </row>
@@ -4791,7 +5876,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>35.29605092</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
         <v>576711</v>
       </c>
     </row>
@@ -4811,7 +5901,12 @@
           <t>AIMIM</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>26.42948092</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
         <v>517471</v>
       </c>
     </row>
@@ -4831,7 +5926,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>45.45980141</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
         <v>1068569</v>
       </c>
     </row>
@@ -4851,7 +5951,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>41.39650604</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
         <v>498493</v>
       </c>
     </row>
@@ -4871,7 +5976,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>28.12182654</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
         <v>263632</v>
       </c>
     </row>
@@ -4891,7 +6001,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>45.41223028</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
         <v>826454</v>
       </c>
     </row>
@@ -4911,7 +6026,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>30.19238493</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
         <v>572790</v>
       </c>
     </row>
@@ -4931,7 +6051,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>46.61032528</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
         <v>887400</v>
       </c>
     </row>
@@ -4951,7 +6076,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>37.89357115</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
         <v>688472</v>
       </c>
     </row>
@@ -4971,7 +6101,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>37.72127562</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
         <v>619985</v>
       </c>
     </row>
@@ -4991,7 +6126,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>21.12645377</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
         <v>335584</v>
       </c>
     </row>
@@ -5011,7 +6151,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>43.44409388</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
         <v>924065</v>
       </c>
     </row>
@@ -5031,7 +6176,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>42.00329622</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
         <v>820132</v>
       </c>
     </row>
@@ -5051,7 +6201,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>36.88253683</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
         <v>544020</v>
       </c>
     </row>
@@ -5071,7 +6226,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>23.85329044</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
         <v>385712</v>
       </c>
     </row>
@@ -5091,7 +6251,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>30.09080574</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
         <v>581763</v>
       </c>
     </row>
@@ -5111,7 +6276,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>36.96147872</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
         <v>713874</v>
       </c>
     </row>
@@ -5131,7 +6301,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>37.38279367</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
         <v>698019</v>
       </c>
     </row>
@@ -5151,7 +6326,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>37.31250398</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
         <v>772833</v>
       </c>
     </row>
@@ -5171,7 +6351,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>43.80067809</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
         <v>760145</v>
       </c>
     </row>
@@ -5191,7 +6376,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>41.91203838</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
         <v>858066</v>
       </c>
     </row>
@@ -5211,7 +6401,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>35.69877731</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
         <v>591588</v>
       </c>
     </row>
@@ -5231,7 +6426,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>39.9013902</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
         <v>679632</v>
       </c>
     </row>
@@ -5251,7 +6451,12 @@
           <t>LJP</t>
         </is>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>30.78483187</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
         <v>529134</v>
       </c>
     </row>
@@ -5271,7 +6476,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>34.82449405</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
         <v>562838</v>
       </c>
     </row>
@@ -5291,7 +6501,12 @@
           <t>BSP</t>
         </is>
       </c>
-      <c r="D243" t="n">
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>27.89800297</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
         <v>521128</v>
       </c>
     </row>
@@ -5311,7 +6526,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D244" t="n">
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>46.1794941</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
         <v>761202</v>
       </c>
     </row>
@@ -5331,7 +6551,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>32.51918979</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
         <v>602391</v>
       </c>
     </row>
@@ -5351,7 +6576,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>39.65583056</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
         <v>809272</v>
       </c>
     </row>
@@ -5371,7 +6601,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>38.16281211</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
         <v>626583</v>
       </c>
     </row>
@@ -5391,7 +6626,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>38.09122537</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
         <v>738163</v>
       </c>
     </row>
@@ -5411,7 +6651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>40.31613564</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
         <v>788888</v>
       </c>
     </row>
@@ -5431,7 +6676,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>39.80029816</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
         <v>543288</v>
       </c>
     </row>
@@ -5451,7 +6701,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>33.34079997</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
         <v>547744</v>
       </c>
     </row>
@@ -5471,7 +6726,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>35.03847456</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
         <v>546233</v>
       </c>
     </row>
@@ -5491,7 +6751,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>29.07602782</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
         <v>526443</v>
       </c>
     </row>
@@ -5511,7 +6776,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>44.03328819</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
         <v>811135</v>
       </c>
     </row>
@@ -5531,7 +6801,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>43.94367894</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
         <v>838909</v>
       </c>
     </row>
@@ -5551,7 +6826,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>42.16944644</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
         <v>773550</v>
       </c>
     </row>
@@ -5571,7 +6851,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>34.68293524</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
         <v>523310</v>
       </c>
     </row>
@@ -5591,7 +6876,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>36.52045696</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
         <v>637034</v>
       </c>
     </row>
@@ -5611,7 +6901,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>49.89390765</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
         <v>783499</v>
       </c>
     </row>
@@ -5631,7 +6926,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>34.01691843</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
         <v>566961</v>
       </c>
     </row>
@@ -5651,7 +6951,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>32.19132798</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
         <v>581358</v>
       </c>
     </row>
@@ -5671,7 +6976,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>34.3768583</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
         <v>537630</v>
       </c>
     </row>
@@ -5691,7 +7001,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>26.8813747</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
         <v>433074</v>
       </c>
     </row>
@@ -5711,7 +7026,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>45.30951538</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
         <v>786092</v>
       </c>
     </row>
@@ -5731,7 +7051,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>47.20354913</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
         <v>721713</v>
       </c>
     </row>
@@ -5751,7 +7076,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>28.47483512</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
         <v>559723</v>
       </c>
     </row>
@@ -5771,7 +7101,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>41.60628519</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
         <v>684004</v>
       </c>
     </row>
@@ -5791,7 +7126,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>35.82611786</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
         <v>461679</v>
       </c>
     </row>
@@ -5811,7 +7151,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>50.8091286</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
         <v>725218</v>
       </c>
     </row>
@@ -5831,7 +7176,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>30.03412587</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
         <v>563087</v>
       </c>
     </row>
@@ -5851,7 +7201,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>41.78084929</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
         <v>627235</v>
       </c>
     </row>
@@ -5871,7 +7226,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D272" t="n">
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>41.82551024</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
         <v>529741</v>
       </c>
     </row>
@@ -5891,7 +7251,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>28.71658799</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
         <v>468937</v>
       </c>
     </row>
@@ -5911,7 +7276,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>42.88005821</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
         <v>711872</v>
       </c>
     </row>
@@ -5931,7 +7301,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>22.49299084</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
         <v>398408</v>
       </c>
     </row>
@@ -5951,7 +7326,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>35.29738325</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
         <v>473046</v>
       </c>
     </row>
@@ -5971,7 +7351,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D277" t="n">
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>30.17033162</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
         <v>498276</v>
       </c>
     </row>
@@ -5991,7 +7376,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D278" t="n">
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>47.87298346</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
         <v>911594</v>
       </c>
     </row>
@@ -6011,7 +7401,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D279" t="n">
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>50.14805887</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
         <v>695697</v>
       </c>
     </row>
@@ -6031,7 +7426,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D280" t="n">
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>34.82279607</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
         <v>474961</v>
       </c>
     </row>
@@ -6051,7 +7451,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D281" t="n">
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>33.83566607</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
         <v>559423</v>
       </c>
     </row>
@@ -6071,7 +7476,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>21.43163302</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
         <v>383009</v>
       </c>
     </row>
@@ -6091,7 +7501,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>36.83284276</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
         <v>630179</v>
       </c>
     </row>
@@ -6111,7 +7526,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>34.70450086</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
         <v>526359</v>
       </c>
     </row>
@@ -6131,7 +7551,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>28.05090424</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
         <v>459710</v>
       </c>
     </row>
@@ -6151,7 +7576,12 @@
           <t>LJP</t>
         </is>
       </c>
-      <c r="D286" t="n">
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>30.43286604</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
         <v>510193</v>
       </c>
     </row>
@@ -6171,7 +7601,12 @@
           <t>TRS</t>
         </is>
       </c>
-      <c r="D287" t="n">
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>37.48550841</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
         <v>567459</v>
       </c>
     </row>
@@ -6191,7 +7626,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>39.6098065</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
         <v>714572</v>
       </c>
     </row>
@@ -6211,7 +7651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D289" t="n">
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>34.42646096</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
         <v>609589</v>
       </c>
     </row>
@@ -6231,7 +7676,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D290" t="n">
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>31.81586877</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
         <v>382638</v>
       </c>
     </row>
@@ -6251,7 +7701,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D291" t="n">
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>22.11410712</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
         <v>367017</v>
       </c>
     </row>
@@ -6271,7 +7726,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D292" t="n">
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>41.50849583</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
         <v>753016</v>
       </c>
     </row>
@@ -6291,8 +7751,13 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="D293" t="n">
-        <v>505307</v>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>27.27828512</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>484560</v>
       </c>
     </row>
     <row r="294">
@@ -6311,7 +7776,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D294" t="n">
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>43.50809621</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
         <v>709165</v>
       </c>
     </row>
@@ -6331,7 +7801,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D295" t="n">
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>39.8344373</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
         <v>749085</v>
       </c>
     </row>
@@ -6351,7 +7826,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D296" t="n">
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>33.15028305</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
         <v>573119</v>
       </c>
     </row>
@@ -6371,7 +7851,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D297" t="n">
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>32.88532092</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
         <v>474891</v>
       </c>
     </row>
@@ -6391,7 +7876,12 @@
           <t>RSP</t>
         </is>
       </c>
-      <c r="D298" t="n">
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>38.53391634</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
         <v>499677</v>
       </c>
     </row>
@@ -6411,7 +7901,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D299" t="n">
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>33.78737635</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
         <v>586783</v>
       </c>
     </row>
@@ -6431,7 +7926,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D300" t="n">
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>25.87375487</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
         <v>371129</v>
       </c>
     </row>
@@ -6451,7 +7951,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D301" t="n">
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>41.07016904</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
         <v>800051</v>
       </c>
     </row>
@@ -6471,7 +7976,12 @@
           <t>KEC(M)</t>
         </is>
       </c>
-      <c r="D302" t="n">
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>34.89240887</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
         <v>421046</v>
       </c>
     </row>
@@ -6491,7 +8001,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D303" t="n">
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>37.43816501</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
         <v>493444</v>
       </c>
     </row>
@@ -6511,7 +8026,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D304" t="n">
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>39.94357046</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
         <v>611298</v>
       </c>
     </row>
@@ -6531,7 +8051,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D305" t="n">
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>37.68295359</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
         <v>614872</v>
       </c>
     </row>
@@ -6551,7 +8076,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D306" t="n">
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>38.49068886</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
         <v>605462</v>
       </c>
     </row>
@@ -6571,7 +8101,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D307" t="n">
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>41.55038058</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
         <v>688629</v>
       </c>
     </row>
@@ -6591,7 +8126,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D308" t="n">
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>33.8925523</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
         <v>597039</v>
       </c>
     </row>
@@ -6608,11 +8148,16 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="D309" t="n">
-        <v>61349</v>
+          <t>BJP</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>23.94326906</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>42914</v>
       </c>
     </row>
     <row r="310">
@@ -6631,7 +8176,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D310" t="n">
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>45.45667978</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
         <v>776406</v>
       </c>
     </row>
@@ -6651,7 +8201,12 @@
           <t>NCP</t>
         </is>
       </c>
-      <c r="D311" t="n">
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>41.40499012</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
         <v>22851</v>
       </c>
     </row>
@@ -6671,7 +8226,12 @@
           <t>BSP</t>
         </is>
       </c>
-      <c r="D312" t="n">
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>29.61335175</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
         <v>518820</v>
       </c>
     </row>
@@ -6691,7 +8251,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D313" t="n">
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>35.06175208</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
         <v>661495</v>
       </c>
     </row>
@@ -6711,7 +8276,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D314" t="n">
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>30.10606942</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
         <v>371595</v>
       </c>
     </row>
@@ -6731,7 +8301,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D315" t="n">
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>31.0251048</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
         <v>633026</v>
       </c>
     </row>
@@ -6751,7 +8326,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D316" t="n">
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>22.79981584</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
         <v>383795</v>
       </c>
     </row>
@@ -6771,7 +8351,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D317" t="n">
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>37.64337273</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
         <v>616580</v>
       </c>
     </row>
@@ -6791,7 +8376,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D318" t="n">
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>37.78396293</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
         <v>737266</v>
       </c>
     </row>
@@ -6811,7 +8401,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D319" t="n">
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>48.14572301</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
         <v>847786</v>
       </c>
     </row>
@@ -6828,11 +8423,16 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="D320" t="n">
-        <v>230796</v>
+          <t>MNF</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>28.30235821</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>224286</v>
       </c>
     </row>
     <row r="321">
@@ -6851,7 +8451,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D321" t="n">
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>29.47609623</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
         <v>541689</v>
       </c>
     </row>
@@ -6871,7 +8476,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D322" t="n">
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>26.42403368</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
         <v>488397</v>
       </c>
     </row>
@@ -6891,7 +8501,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D323" t="n">
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>38.88086106</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
         <v>572850</v>
       </c>
     </row>
@@ -6911,7 +8526,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D324" t="n">
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>30.70391616</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
         <v>586314</v>
       </c>
     </row>
@@ -6931,7 +8551,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D325" t="n">
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>33.12322303</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
         <v>624334</v>
       </c>
     </row>
@@ -6951,7 +8576,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>33.23536729</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
         <v>595843</v>
       </c>
     </row>
@@ -6971,7 +8601,12 @@
           <t>CPIM</t>
         </is>
       </c>
-      <c r="D327" t="n">
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>29.04921684</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
         <v>447075</v>
       </c>
     </row>
@@ -6991,7 +8626,12 @@
           <t>TRS</t>
         </is>
       </c>
-      <c r="D328" t="n">
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>32.44270334</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
         <v>462109</v>
       </c>
     </row>
@@ -7011,7 +8651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D329" t="n">
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>37.92137237</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
         <v>726349</v>
       </c>
     </row>
@@ -7031,7 +8676,12 @@
           <t>TRS</t>
         </is>
       </c>
-      <c r="D330" t="n">
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>27.31567981</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
         <v>411402</v>
       </c>
     </row>
@@ -7051,7 +8701,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D331" t="n">
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>39.99862936</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
         <v>659525</v>
       </c>
     </row>
@@ -7071,7 +8726,12 @@
           <t>SP</t>
         </is>
       </c>
-      <c r="D332" t="n">
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>30.46164309</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
         <v>524926</v>
       </c>
     </row>
@@ -7091,7 +8751,12 @@
           <t>IUML</t>
         </is>
       </c>
-      <c r="D333" t="n">
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>43.03933329</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
         <v>589873</v>
       </c>
     </row>
@@ -7111,7 +8776,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D334" t="n">
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>28.19705634</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
         <v>444270</v>
       </c>
     </row>
@@ -7131,7 +8801,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D335" t="n">
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>30.22168445</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
         <v>509524</v>
       </c>
     </row>
@@ -7151,7 +8826,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D336" t="n">
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>19.16469887</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
         <v>603748</v>
       </c>
     </row>
@@ -7171,7 +8851,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D337" t="n">
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>50.50395564</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
         <v>647189</v>
       </c>
     </row>
@@ -7191,8 +8876,13 @@
           <t>IND</t>
         </is>
       </c>
-      <c r="D338" t="n">
-        <v>769195</v>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>41.10153948</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>703660</v>
       </c>
     </row>
     <row r="339">
@@ -7211,7 +8901,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D339" t="n">
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>40.85400978</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
         <v>735469</v>
       </c>
     </row>
@@ -7231,7 +8926,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D340" t="n">
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>37.13123509</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
         <v>671293</v>
       </c>
     </row>
@@ -7251,7 +8951,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>43.99429573</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
         <v>726828</v>
       </c>
     </row>
@@ -7271,7 +8976,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>31.35935215</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
         <v>720663</v>
       </c>
     </row>
@@ -7291,7 +9001,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>33.66824605</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
         <v>440415</v>
       </c>
     </row>
@@ -7311,7 +9026,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>40.3606579</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
         <v>599292</v>
       </c>
     </row>
@@ -7331,7 +9051,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>32.40090945</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
         <v>483812</v>
       </c>
     </row>
@@ -7351,7 +9076,12 @@
           <t>TRS</t>
         </is>
       </c>
-      <c r="D346" t="n">
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>37.17590646</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
         <v>596048</v>
       </c>
     </row>
@@ -7371,7 +9101,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D347" t="n">
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>40.94004668</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
         <v>685433</v>
       </c>
     </row>
@@ -7391,7 +9126,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D348" t="n">
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>30.96700302</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
         <v>586184</v>
       </c>
     </row>
@@ -7411,7 +9151,12 @@
           <t>ADAL</t>
         </is>
       </c>
-      <c r="D349" t="n">
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>32.06048289</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
         <v>591564</v>
       </c>
     </row>
@@ -7431,7 +9176,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D350" t="n">
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>29.74119221</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
         <v>534429</v>
       </c>
     </row>
@@ -7451,7 +9201,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D351" t="n">
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>31.13518573</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
         <v>629999</v>
       </c>
     </row>
@@ -7471,7 +9226,12 @@
           <t>SP</t>
         </is>
       </c>
-      <c r="D352" t="n">
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>33.15141513</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
         <v>649416</v>
       </c>
     </row>
@@ -7491,7 +9251,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D353" t="n">
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>27.14859836</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
         <v>421937</v>
       </c>
     </row>
@@ -7511,7 +9276,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D354" t="n">
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>42.89786627</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
         <v>706678</v>
       </c>
     </row>
@@ -7531,7 +9301,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D355" t="n">
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>32.39134307</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
         <v>514599</v>
       </c>
     </row>
@@ -7551,7 +9326,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D356" t="n">
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>32.90857104</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
         <v>570063</v>
       </c>
     </row>
@@ -7571,7 +9351,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D357" t="n">
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>28.97045106</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
         <v>486672</v>
       </c>
     </row>
@@ -7591,7 +9376,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D358" t="n">
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>29.50006248</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
         <v>424913</v>
       </c>
     </row>
@@ -7611,7 +9401,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D359" t="n">
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>28.00609102</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
         <v>528762</v>
       </c>
     </row>
@@ -7631,7 +9426,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D360" t="n">
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>35.03075319</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
         <v>604346</v>
       </c>
     </row>
@@ -7651,7 +9451,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D361" t="n">
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>33.79145973</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
         <v>573780</v>
       </c>
     </row>
@@ -7671,7 +9476,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D362" t="n">
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>38.53554326</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
         <v>666878</v>
       </c>
     </row>
@@ -7691,7 +9501,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D363" t="n">
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>36.33191006</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
         <v>688974</v>
       </c>
     </row>
@@ -7711,7 +9526,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D364" t="n">
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>31.17251015</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
         <v>504206</v>
       </c>
     </row>
@@ -7731,7 +9551,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D365" t="n">
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>34.39431354</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
         <v>787799</v>
       </c>
     </row>
@@ -7751,7 +9576,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D366" t="n">
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>35.67317292</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
         <v>848663</v>
       </c>
     </row>
@@ -7771,7 +9601,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D367" t="n">
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>26.86536108</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
         <v>392504</v>
       </c>
     </row>
@@ -7791,7 +9626,12 @@
           <t>NDPP</t>
         </is>
       </c>
-      <c r="D368" t="n">
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>41.23574594</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
         <v>500510</v>
       </c>
     </row>
@@ -7811,7 +9651,12 @@
           <t>CPI</t>
         </is>
       </c>
-      <c r="D369" t="n">
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>40.1098762</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
         <v>522892</v>
       </c>
     </row>
@@ -7831,7 +9676,12 @@
           <t>TRS</t>
         </is>
       </c>
-      <c r="D370" t="n">
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>31.46329192</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
         <v>499672</v>
       </c>
     </row>
@@ -7851,7 +9701,12 @@
           <t>RLTP</t>
         </is>
       </c>
-      <c r="D371" t="n">
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>34.14347116</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
         <v>660051</v>
       </c>
     </row>
@@ -7871,7 +9726,12 @@
           <t>BSP</t>
         </is>
       </c>
-      <c r="D372" t="n">
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>35.83455697</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
         <v>568378</v>
       </c>
     </row>
@@ -7891,7 +9751,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D373" t="n">
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>30.5502856</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
         <v>660221</v>
       </c>
     </row>
@@ -7911,7 +9776,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D374" t="n">
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>42.2326112</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
         <v>772195</v>
       </c>
     </row>
@@ -7931,7 +9801,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D375" t="n">
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>25.57621043</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
         <v>540888</v>
       </c>
     </row>
@@ -7951,7 +9826,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D376" t="n">
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>33.16737916</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
         <v>526028</v>
       </c>
     </row>
@@ -7971,7 +9851,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D377" t="n">
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>44.3048559</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
         <v>626293</v>
       </c>
     </row>
@@ -7991,7 +9876,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D378" t="n">
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>28.31383534</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
         <v>486806</v>
       </c>
     </row>
@@ -8011,7 +9901,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D379" t="n">
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>34.15832086</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
         <v>639136</v>
       </c>
     </row>
@@ -8031,7 +9926,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D380" t="n">
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>44.96500792</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
         <v>720888</v>
       </c>
     </row>
@@ -8051,7 +9951,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D381" t="n">
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>44.63368158</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
         <v>745557</v>
       </c>
     </row>
@@ -8071,7 +9976,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D382" t="n">
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>31.20350131</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
         <v>449234</v>
       </c>
     </row>
@@ -8091,7 +10001,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D383" t="n">
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>29.89813608</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
         <v>563599</v>
       </c>
     </row>
@@ -8111,7 +10026,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D384" t="n">
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>49.33609176</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
         <v>972739</v>
       </c>
     </row>
@@ -8131,7 +10051,12 @@
           <t>LJP</t>
         </is>
       </c>
-      <c r="D385" t="n">
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>26.09210595</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
         <v>495684</v>
       </c>
     </row>
@@ -8151,7 +10076,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D386" t="n">
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>40.87826427</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
         <v>683830</v>
       </c>
     </row>
@@ -8171,7 +10101,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>40.10307014</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
         <v>547832</v>
       </c>
     </row>
@@ -8191,7 +10126,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D388" t="n">
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>30.93785507</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
         <v>480584</v>
       </c>
     </row>
@@ -8211,7 +10151,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D389" t="n">
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>43.97649979</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
         <v>244844</v>
       </c>
     </row>
@@ -8231,7 +10176,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>41.21833362</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
         <v>739724</v>
       </c>
     </row>
@@ -8251,7 +10201,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D391" t="n">
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>47.49224045</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
         <v>739202</v>
       </c>
     </row>
@@ -8271,7 +10226,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D392" t="n">
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>31.57259729</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
         <v>596640</v>
       </c>
     </row>
@@ -8291,7 +10251,12 @@
           <t>NPF</t>
         </is>
       </c>
-      <c r="D393" t="n">
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>35.56671125</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
         <v>363527</v>
       </c>
     </row>
@@ -8311,7 +10276,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D394" t="n">
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>30.17921255</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
         <v>399274</v>
       </c>
     </row>
@@ -8331,7 +10301,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D395" t="n">
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>40.1638425</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
         <v>755659</v>
       </c>
     </row>
@@ -8351,7 +10326,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D396" t="n">
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>30.78484302</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
         <v>580479</v>
       </c>
     </row>
@@ -8371,7 +10351,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D397" t="n">
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>41.64150471</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
         <v>900149</v>
       </c>
     </row>
@@ -8391,7 +10376,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D398" t="n">
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>41.96194094</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
         <v>732136</v>
       </c>
     </row>
@@ -8411,7 +10401,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D399" t="n">
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>27.14756189</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
         <v>538941</v>
       </c>
     </row>
@@ -8431,7 +10426,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D400" t="n">
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>36.95049161</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
         <v>603706</v>
       </c>
     </row>
@@ -8451,7 +10451,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D401" t="n">
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>26.46390846</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
         <v>509557</v>
       </c>
     </row>
@@ -8471,7 +10476,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D402" t="n">
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>35.04996837</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
         <v>633368</v>
       </c>
     </row>
@@ -8491,7 +10501,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D403" t="n">
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>27.54868772</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
         <v>380927</v>
       </c>
     </row>
@@ -8511,7 +10526,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D404" t="n">
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>30.58329501</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
         <v>532027</v>
       </c>
     </row>
@@ -8531,7 +10551,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D405" t="n">
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>28.30865495</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
         <v>607506</v>
       </c>
     </row>
@@ -8551,7 +10576,12 @@
           <t>TRS</t>
         </is>
       </c>
-      <c r="D406" t="n">
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>29.83731224</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
         <v>441321</v>
       </c>
     </row>
@@ -8571,7 +10601,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D407" t="n">
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>49.12135118</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
         <v>683697</v>
       </c>
     </row>
@@ -8591,7 +10626,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D408" t="n">
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>27.09312268</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
         <v>544701</v>
       </c>
     </row>
@@ -8611,7 +10651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D409" t="n">
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>40.00375879</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
         <v>704549</v>
       </c>
     </row>
@@ -8631,7 +10676,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D410" t="n">
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>36.45041381</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
         <v>554230</v>
       </c>
     </row>
@@ -8651,7 +10701,12 @@
           <t>IUML</t>
         </is>
       </c>
-      <c r="D411" t="n">
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>38.45982062</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
         <v>521824</v>
       </c>
     </row>
@@ -8671,7 +10726,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D412" t="n">
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>33.92034736</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
         <v>563881</v>
       </c>
     </row>
@@ -8691,7 +10751,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D413" t="n">
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>25.53262338</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
         <v>436291</v>
       </c>
     </row>
@@ -8711,7 +10776,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D414" t="n">
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>45.7136253</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
         <v>444981</v>
       </c>
     </row>
@@ -8731,7 +10801,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D415" t="n">
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>30.48596605</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
         <v>632835</v>
       </c>
     </row>
@@ -8751,7 +10826,12 @@
           <t>BJD</t>
         </is>
       </c>
-      <c r="D416" t="n">
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>34.45627079</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
         <v>538321</v>
       </c>
     </row>
@@ -8771,7 +10851,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D417" t="n">
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>35.85337889</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
         <v>632924</v>
       </c>
     </row>
@@ -8791,7 +10876,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D418" t="n">
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>40.5925934</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
         <v>668107</v>
       </c>
     </row>
@@ -8811,7 +10901,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D419" t="n">
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>34.83431323</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
         <v>577787</v>
       </c>
     </row>
@@ -8831,7 +10926,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D420" t="n">
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>37.97053302</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
         <v>658335</v>
       </c>
     </row>
@@ -8851,7 +10951,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D421" t="n">
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>39.67831237</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
         <v>837902</v>
       </c>
     </row>
@@ -8871,7 +10976,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D422" t="n">
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>48.62243401</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
         <v>823824</v>
       </c>
     </row>
@@ -8891,7 +11001,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D423" t="n">
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>38.59031879</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
         <v>662387</v>
       </c>
     </row>
@@ -8911,7 +11026,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D424" t="n">
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>37.60458578</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
         <v>696103</v>
       </c>
     </row>
@@ -8931,7 +11051,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D425" t="n">
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>34.75779591</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
         <v>583769</v>
       </c>
     </row>
@@ -8951,7 +11076,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D426" t="n">
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>31.42421081</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
         <v>534918</v>
       </c>
     </row>
@@ -8971,7 +11101,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D427" t="n">
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>31.03079342</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
         <v>598337</v>
       </c>
     </row>
@@ -8991,7 +11126,12 @@
           <t>NCP</t>
         </is>
       </c>
-      <c r="D428" t="n">
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>29.4602729</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
         <v>486968</v>
       </c>
     </row>
@@ -9011,7 +11151,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D429" t="n">
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>31.95388516</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
         <v>511652</v>
       </c>
     </row>
@@ -9031,7 +11176,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D430" t="n">
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>37.93525983</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
         <v>582024</v>
       </c>
     </row>
@@ -9051,7 +11201,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D431" t="n">
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>45.39360983</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
         <v>702211</v>
       </c>
     </row>
@@ -9071,7 +11226,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D432" t="n">
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>40.26053698</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
         <v>758645</v>
       </c>
     </row>
@@ -9091,7 +11251,12 @@
           <t>JMM</t>
         </is>
       </c>
-      <c r="D433" t="n">
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>34.91593992</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
         <v>507830</v>
       </c>
     </row>
@@ -9111,7 +11276,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D434" t="n">
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>45.11652659</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
         <v>863039</v>
       </c>
     </row>
@@ -9131,7 +11301,12 @@
           <t>IUML</t>
         </is>
       </c>
-      <c r="D435" t="n">
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>30.12957288</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
         <v>469943</v>
       </c>
     </row>
@@ -9151,7 +11326,12 @@
           <t>SP</t>
         </is>
       </c>
-      <c r="D436" t="n">
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>33.2941353</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
         <v>559177</v>
       </c>
     </row>
@@ -9171,7 +11351,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D437" t="n">
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>31.05560537</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
         <v>597126</v>
       </c>
     </row>
@@ -9191,7 +11376,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D438" t="n">
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>44.44614051</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
         <v>783253</v>
       </c>
     </row>
@@ -9211,7 +11401,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D439" t="n">
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>36.8750062</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
         <v>706510</v>
       </c>
     </row>
@@ -9231,7 +11426,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D440" t="n">
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>31.46669671</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
         <v>458022</v>
       </c>
     </row>
@@ -9251,7 +11451,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D441" t="n">
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>36.92209407</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
         <v>655386</v>
       </c>
     </row>
@@ -9271,7 +11476,12 @@
           <t>ADAL</t>
         </is>
       </c>
-      <c r="D442" t="n">
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>25.9880548</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
         <v>447914</v>
       </c>
     </row>
@@ -9291,7 +11501,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D443" t="n">
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>33.03402791</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
         <v>573845</v>
       </c>
     </row>
@@ -9311,7 +11526,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D444" t="n">
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>40.81985738</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
         <v>646231</v>
       </c>
     </row>
@@ -9331,7 +11551,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D445" t="n">
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>40.09759316</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
         <v>663711</v>
       </c>
     </row>
@@ -9351,7 +11576,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D446" t="n">
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>37.37962394</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
         <v>588753</v>
       </c>
     </row>
@@ -9371,7 +11601,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>45.1547685</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
         <v>747977</v>
       </c>
     </row>
@@ -9391,7 +11626,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D448" t="n">
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>37.83929643</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
         <v>698342</v>
       </c>
     </row>
@@ -9411,7 +11651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D449" t="n">
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>33.22980871</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
         <v>687014</v>
       </c>
     </row>
@@ -9431,7 +11676,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D450" t="n">
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>38.96189024</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
         <v>701983</v>
       </c>
     </row>
@@ -9451,7 +11701,12 @@
           <t>BSP</t>
         </is>
       </c>
-      <c r="D451" t="n">
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>29.56381585</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
         <v>514139</v>
       </c>
     </row>
@@ -9471,7 +11726,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D452" t="n">
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>37.59984422</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
         <v>606302</v>
       </c>
     </row>
@@ -9491,7 +11751,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>28.06603802</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
         <v>467940</v>
       </c>
     </row>
@@ -9511,7 +11776,12 @@
           <t>LJP</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>33.49809116</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
         <v>562443</v>
       </c>
     </row>
@@ -9531,7 +11801,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>32.26151321</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
         <v>473770</v>
       </c>
     </row>
@@ -9551,7 +11826,12 @@
           <t>SP</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>35.98091389</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
         <v>658006</v>
       </c>
     </row>
@@ -9571,7 +11851,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>28.13512066</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
         <v>508995</v>
       </c>
     </row>
@@ -9591,7 +11876,12 @@
           <t>AAAP</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>27.04018684</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
         <v>413561</v>
       </c>
     </row>
@@ -9611,7 +11901,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>23.8189559</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
         <v>467543</v>
       </c>
     </row>
@@ -9631,7 +11926,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D460" t="n">
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>29.98861001</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
         <v>499986</v>
       </c>
     </row>
@@ -9651,7 +11951,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D461" t="n">
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>27.67526643</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
         <v>494800</v>
       </c>
     </row>
@@ -9671,7 +11976,12 @@
           <t>NCP</t>
         </is>
       </c>
-      <c r="D462" t="n">
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>31.32428703</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
         <v>579026</v>
       </c>
     </row>
@@ -9691,7 +12001,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D463" t="n">
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>19.54908763</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
         <v>384780</v>
       </c>
     </row>
@@ -9711,7 +12026,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D464" t="n">
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>32.58867061</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
         <v>688990</v>
       </c>
     </row>
@@ -9731,7 +12051,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D465" t="n">
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>36.09729483</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
         <v>608678</v>
       </c>
     </row>
@@ -9751,7 +12076,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D466" t="n">
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>35.03814474</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
         <v>419689</v>
       </c>
     </row>
@@ -9771,7 +12101,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D467" t="n">
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>48.14464472</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
         <v>606182</v>
       </c>
     </row>
@@ -9791,7 +12126,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>43.53109858</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
         <v>729872</v>
       </c>
     </row>
@@ -9811,7 +12151,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D469" t="n">
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>30.67396141</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
         <v>486820</v>
       </c>
     </row>
@@ -9831,7 +12176,12 @@
           <t>NCP</t>
         </is>
       </c>
-      <c r="D470" t="n">
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>29.22645481</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
         <v>635830</v>
       </c>
     </row>
@@ -9851,7 +12201,12 @@
           <t>BSP</t>
         </is>
       </c>
-      <c r="D471" t="n">
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>23.07212628</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
         <v>441771</v>
       </c>
     </row>
@@ -9871,7 +12226,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D472" t="n">
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>37.81835138</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
         <v>772104</v>
       </c>
     </row>
@@ -9891,7 +12251,12 @@
           <t>SKM</t>
         </is>
       </c>
-      <c r="D473" t="n">
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>38.44995025</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
         <v>166922</v>
       </c>
     </row>
@@ -9911,7 +12276,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>41.76680159</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
         <v>499414</v>
       </c>
     </row>
@@ -9931,7 +12301,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D475" t="n">
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>34.00340337</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
         <v>431815</v>
       </c>
     </row>
@@ -9951,7 +12326,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D476" t="n">
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>39.61246547</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
         <v>714351</v>
       </c>
     </row>
@@ -9971,7 +12351,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D477" t="n">
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>32.39714138</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
         <v>567745</v>
       </c>
     </row>
@@ -9991,7 +12376,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D478" t="n">
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>30.88169802</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
         <v>514528</v>
       </c>
     </row>
@@ -10011,7 +12401,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D479" t="n">
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>36.47532666</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
         <v>566104</v>
       </c>
     </row>
@@ -10031,7 +12426,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D480" t="n">
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>24.92138317</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
         <v>448473</v>
       </c>
     </row>
@@ -10051,7 +12451,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D481" t="n">
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>28.35221915</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
         <v>524985</v>
       </c>
     </row>
@@ -10071,7 +12476,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D482" t="n">
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>36.89940607</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
         <v>587664</v>
       </c>
     </row>
@@ -10091,7 +12501,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D483" t="n">
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>34.79076624</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
         <v>201561</v>
       </c>
     </row>
@@ -10111,7 +12526,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D484" t="n">
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>35.71643801</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
         <v>637707</v>
       </c>
     </row>
@@ -10131,7 +12551,12 @@
           <t>TDP</t>
         </is>
       </c>
-      <c r="D485" t="n">
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>34.40103999</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
         <v>534544</v>
       </c>
     </row>
@@ -10151,7 +12576,12 @@
           <t>JKN</t>
         </is>
       </c>
-      <c r="D486" t="n">
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>8.245338005</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
         <v>106750</v>
       </c>
     </row>
@@ -10171,7 +12601,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D487" t="n">
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>35.20298671</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
         <v>793281</v>
       </c>
     </row>
@@ -10191,7 +12626,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D488" t="n">
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>25.86734085</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
         <v>459196</v>
       </c>
     </row>
@@ -10211,7 +12651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D489" t="n">
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>32.65085454</t>
+        </is>
+      </c>
+      <c r="E489" t="n">
         <v>500056</v>
       </c>
     </row>
@@ -10231,7 +12676,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>35.33478842</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
         <v>597377</v>
       </c>
     </row>
@@ -10251,7 +12701,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>48.05514754</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
         <v>795651</v>
       </c>
     </row>
@@ -10271,7 +12726,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>34.16427449</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
         <v>631844</v>
       </c>
     </row>
@@ -10291,7 +12751,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>40.80662912</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
         <v>672248</v>
       </c>
     </row>
@@ -10311,7 +12776,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>33.1100539</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
         <v>644319</v>
       </c>
     </row>
@@ -10331,7 +12801,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>42.748338</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
         <v>724433</v>
       </c>
     </row>
@@ -10351,7 +12826,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>37.85180607</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
         <v>565333</v>
       </c>
     </row>
@@ -10371,7 +12851,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D497" t="n">
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>31.90716182</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
         <v>476156</v>
       </c>
     </row>
@@ -10391,7 +12876,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D498" t="n">
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>45.62204637</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
         <v>684166</v>
       </c>
     </row>
@@ -10411,7 +12901,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D499" t="n">
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>31.25260713</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
         <v>740969</v>
       </c>
     </row>
@@ -10431,7 +12926,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D500" t="n">
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>40.31191224</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
         <v>588978</v>
       </c>
     </row>
@@ -10451,7 +12951,12 @@
           <t>ADMK</t>
         </is>
       </c>
-      <c r="D501" t="n">
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>32.33824886</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
         <v>504813</v>
       </c>
     </row>
@@ -10471,7 +12976,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D502" t="n">
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>39.41156831</t>
+        </is>
+      </c>
+      <c r="E502" t="n">
         <v>767292</v>
       </c>
     </row>
@@ -10491,7 +13001,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D503" t="n">
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>30.34292018</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
         <v>416131</v>
       </c>
     </row>
@@ -10511,7 +13026,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D504" t="n">
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>39.44177792</t>
+        </is>
+      </c>
+      <c r="E504" t="n">
         <v>563143</v>
       </c>
     </row>
@@ -10531,7 +13051,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D505" t="n">
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>31.0437436</t>
+        </is>
+      </c>
+      <c r="E505" t="n">
         <v>415089</v>
       </c>
     </row>
@@ -10551,7 +13076,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D506" t="n">
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>41.17297773</t>
+        </is>
+      </c>
+      <c r="E506" t="n">
         <v>621285</v>
       </c>
     </row>
@@ -10571,7 +13101,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D507" t="n">
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>33.78944308</t>
+        </is>
+      </c>
+      <c r="E507" t="n">
         <v>522993</v>
       </c>
     </row>
@@ -10591,7 +13126,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D508" t="n">
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>43.79870254</t>
+        </is>
+      </c>
+      <c r="E508" t="n">
         <v>722877</v>
       </c>
     </row>
@@ -10611,7 +13151,12 @@
           <t>CPI</t>
         </is>
       </c>
-      <c r="D509" t="n">
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>33.24969575</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
         <v>508725</v>
       </c>
     </row>
@@ -10631,7 +13176,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D510" t="n">
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>45.20586052</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
         <v>666272</v>
       </c>
     </row>
@@ -10651,7 +13201,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D511" t="n">
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>38.20753633</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
         <v>482126</v>
       </c>
     </row>
@@ -10671,7 +13226,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D512" t="n">
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>42.3941333</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
         <v>573532</v>
       </c>
     </row>
@@ -10691,7 +13251,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D513" t="n">
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>37.06001386</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
         <v>596127</v>
       </c>
     </row>
@@ -10711,7 +13276,12 @@
           <t>NPEP</t>
         </is>
       </c>
-      <c r="D514" t="n">
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>42.46293533</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
         <v>304455</v>
       </c>
     </row>
@@ -10731,7 +13301,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D515" t="n">
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>47.65526005</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
         <v>791663</v>
       </c>
     </row>
@@ -10751,7 +13326,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D516" t="n">
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>42.11273996</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
         <v>871548</v>
       </c>
     </row>
@@ -10771,7 +13351,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D517" t="n">
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>42.96500923</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
         <v>724311</v>
       </c>
     </row>
@@ -10791,7 +13376,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D518" t="n">
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>47.49062958</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
         <v>718916</v>
       </c>
     </row>
@@ -10811,7 +13401,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D519" t="n">
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>33.73478881</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
         <v>543906</v>
       </c>
     </row>
@@ -10831,7 +13426,12 @@
           <t>AITC</t>
         </is>
       </c>
-      <c r="D520" t="n">
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>43.03096989</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
         <v>694945</v>
       </c>
     </row>
@@ -10851,7 +13451,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D521" t="n">
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>32.10213259</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
         <v>703507</v>
       </c>
     </row>
@@ -10871,7 +13476,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D522" t="n">
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>50.4973985</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
         <v>786042</v>
       </c>
     </row>
@@ -10891,7 +13501,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D523" t="n">
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>48.97910202</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
         <v>853022</v>
       </c>
     </row>
@@ -10911,7 +13526,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D524" t="n">
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>40.8677457</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
         <v>526755</v>
       </c>
     </row>
@@ -10931,7 +13551,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D525" t="n">
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>49.23510889</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
         <v>883719</v>
       </c>
     </row>
@@ -10951,7 +13576,12 @@
           <t>LJP</t>
         </is>
       </c>
-      <c r="D526" t="n">
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>32.73159933</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
         <v>568215</v>
       </c>
     </row>
@@ -10971,7 +13601,12 @@
           <t>JD(U)</t>
         </is>
       </c>
-      <c r="D527" t="n">
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>36.184886</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
         <v>602660</v>
       </c>
     </row>
@@ -10991,7 +13626,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D528" t="n">
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>46.19785402</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
         <v>771980</v>
       </c>
     </row>
@@ -11011,7 +13651,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D529" t="n">
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>36.33494561</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
         <v>674664</v>
       </c>
     </row>
@@ -11031,7 +13676,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D530" t="n">
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>33.73595812</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
         <v>485340</v>
       </c>
     </row>
@@ -11051,7 +13701,12 @@
           <t>TDP</t>
         </is>
       </c>
-      <c r="D531" t="n">
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>34.81549237</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
         <v>575498</v>
       </c>
     </row>
@@ -11071,7 +13726,12 @@
           <t>DMK</t>
         </is>
       </c>
-      <c r="D532" t="n">
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>38.74343556</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
         <v>559585</v>
       </c>
     </row>
@@ -11091,7 +13751,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D533" t="n">
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>31.72518757</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
         <v>470883</v>
       </c>
     </row>
@@ -11111,7 +13776,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D534" t="n">
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>23.88378068</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
         <v>436906</v>
       </c>
     </row>
@@ -11131,7 +13801,12 @@
           <t>YSRCP</t>
         </is>
       </c>
-      <c r="D535" t="n">
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>38.45915504</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
         <v>578418</v>
       </c>
     </row>
@@ -11151,7 +13826,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D536" t="n">
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>36.49991314</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
         <v>865648</v>
       </c>
     </row>
@@ -11171,7 +13851,12 @@
           <t>TRS</t>
         </is>
       </c>
-      <c r="D537" t="n">
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>36.74760165</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
         <v>612498</v>
       </c>
     </row>
@@ -11191,7 +13876,12 @@
           <t>BJP</t>
         </is>
       </c>
-      <c r="D538" t="n">
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>33.17671313</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
         <v>578364</v>
       </c>
     </row>
@@ -11211,7 +13901,12 @@
           <t>INC</t>
         </is>
       </c>
-      <c r="D539" t="n">
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>51.95101197</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
         <v>706367</v>
       </c>
     </row>
@@ -11231,7 +13926,12 @@
           <t>SHS</t>
         </is>
       </c>
-      <c r="D540" t="n">
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>28.29048343</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
         <v>542098</v>
       </c>
     </row>
@@ -11251,7 +13951,12 @@
           <t>TRS</t>
         </is>
       </c>
-      <c r="D541" t="n">
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>28.97536876</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
         <v>434244</v>
       </c>
     </row>
